--- a/Code/Results/Cases/Case_3_220/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_220/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.07268247842309</v>
+        <v>24.40667417833229</v>
       </c>
       <c r="C2">
-        <v>16.79173972372295</v>
+        <v>11.68122449503126</v>
       </c>
       <c r="D2">
-        <v>2.661504051902454</v>
+        <v>4.544271183612937</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>43.88823285507258</v>
+        <v>52.6222813664527</v>
       </c>
       <c r="G2">
-        <v>2.12102636799531</v>
+        <v>3.763229909519437</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>28.59835250196237</v>
+        <v>36.77641339118414</v>
       </c>
       <c r="J2">
-        <v>5.829052606865632</v>
+        <v>9.83704870042666</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>8.037697135246956</v>
+        <v>12.76954042613325</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.58074235843038</v>
+        <v>24.12578674411975</v>
       </c>
       <c r="C3">
-        <v>15.57270258345108</v>
+        <v>11.28937801641274</v>
       </c>
       <c r="D3">
-        <v>2.530154518051849</v>
+        <v>4.519794830385382</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>42.48096470380267</v>
+        <v>52.4805796729271</v>
       </c>
       <c r="G3">
-        <v>2.133449320832983</v>
+        <v>3.767544530718476</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>28.02526455126787</v>
+        <v>36.75854143372534</v>
       </c>
       <c r="J3">
-        <v>5.874956998378468</v>
+        <v>9.853924868201119</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.858867698164527</v>
+        <v>12.77687488681967</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.6334593458117</v>
+        <v>23.95886683829773</v>
       </c>
       <c r="C4">
-        <v>14.78849413120671</v>
+        <v>11.04583855981338</v>
       </c>
       <c r="D4">
-        <v>2.448607461366854</v>
+        <v>4.504441606795146</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>41.63962121652834</v>
+        <v>52.4059156209149</v>
       </c>
       <c r="G4">
-        <v>2.141234236990488</v>
+        <v>3.77032972869128</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>27.69506702118791</v>
+        <v>36.7551339148644</v>
       </c>
       <c r="J4">
-        <v>5.904115225558978</v>
+        <v>9.864872266130488</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.752556060523908</v>
+        <v>12.78358451757089</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.23979023921416</v>
+        <v>23.89232093589902</v>
       </c>
       <c r="C5">
-        <v>14.4597814392939</v>
+        <v>10.9460327889026</v>
       </c>
       <c r="D5">
-        <v>2.41512798077623</v>
+        <v>4.498103236242436</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>41.30255720089346</v>
+        <v>52.37859958367894</v>
       </c>
       <c r="G5">
-        <v>2.144449614216255</v>
+        <v>3.771499055580718</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>27.56578762797794</v>
+        <v>36.75564238745474</v>
       </c>
       <c r="J5">
-        <v>5.916247225659182</v>
+        <v>9.869481008779692</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.710124886787387</v>
+        <v>12.78687379674929</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.17396801701458</v>
+        <v>23.88136244178896</v>
       </c>
       <c r="C6">
-        <v>14.40464250063381</v>
+        <v>10.92943168262093</v>
       </c>
       <c r="D6">
-        <v>2.409553183116664</v>
+        <v>4.49704580824147</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>41.24694031750462</v>
+        <v>52.3742517563167</v>
       </c>
       <c r="G6">
-        <v>2.144986214931869</v>
+        <v>3.771695299255912</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>27.54463463144496</v>
+        <v>36.75584121577678</v>
       </c>
       <c r="J6">
-        <v>5.918276967061323</v>
+        <v>9.870255212619632</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.703133512312759</v>
+        <v>12.78745350757941</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.62818079284262</v>
+        <v>23.95796329930474</v>
       </c>
       <c r="C7">
-        <v>14.78409820873366</v>
+        <v>11.04449457181118</v>
       </c>
       <c r="D7">
-        <v>2.448156976895521</v>
+        <v>4.50435645675542</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>41.63505189225879</v>
+        <v>52.40553462812434</v>
       </c>
       <c r="G7">
-        <v>2.141277422409746</v>
+        <v>3.770345359438073</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>27.6933023694783</v>
+        <v>36.7551330994167</v>
       </c>
       <c r="J7">
-        <v>5.904277823949698</v>
+        <v>9.864933823141067</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.751980188949283</v>
+        <v>12.7836266303346</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.56483959464602</v>
+        <v>24.30872241881221</v>
       </c>
       <c r="C8">
-        <v>16.37872550019262</v>
+        <v>11.54683016067551</v>
       </c>
       <c r="D8">
-        <v>2.616385639109313</v>
+        <v>4.535899014127064</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>43.39832704854676</v>
+        <v>52.57086626335769</v>
       </c>
       <c r="G8">
-        <v>2.125279346417317</v>
+        <v>3.764689446132652</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>28.39614730572658</v>
+        <v>36.76867786829824</v>
       </c>
       <c r="J8">
-        <v>5.844681772923986</v>
+        <v>9.842746349238411</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.975320088790232</v>
+        <v>12.77161164914254</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.14050104247877</v>
+        <v>25.03688615308408</v>
       </c>
       <c r="C9">
-        <v>19.23072347253417</v>
+        <v>12.5013667568965</v>
       </c>
       <c r="D9">
-        <v>2.94051800855003</v>
+        <v>4.595186760771779</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>47.03516163671706</v>
+        <v>52.99256067539824</v>
       </c>
       <c r="G9">
-        <v>2.094981509444348</v>
+        <v>3.754671089176333</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>29.95451632714891</v>
+        <v>36.85547188427621</v>
       </c>
       <c r="J9">
-        <v>5.73527906048125</v>
+        <v>9.80386334914688</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.440536972465177</v>
+        <v>12.76553917385487</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.77826872332372</v>
+        <v>25.59138745281327</v>
       </c>
       <c r="C10">
-        <v>21.17171059998925</v>
+        <v>13.17540945923834</v>
       </c>
       <c r="D10">
-        <v>3.177610409611305</v>
+        <v>4.637194238393945</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>49.81928273235833</v>
+        <v>53.3610066011071</v>
       </c>
       <c r="G10">
-        <v>2.073104412531324</v>
+        <v>3.747955900464278</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>31.22150720832266</v>
+        <v>36.95617002400056</v>
       </c>
       <c r="J10">
-        <v>5.659066241047218</v>
+        <v>9.778091263532056</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.798757570873525</v>
+        <v>12.77171000226504</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.93613188265364</v>
+        <v>25.84678697932002</v>
       </c>
       <c r="C11">
-        <v>22.02469358853653</v>
+        <v>13.47458448345506</v>
       </c>
       <c r="D11">
-        <v>3.285972949652204</v>
+        <v>4.655970435504172</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>51.11254302260748</v>
+        <v>53.54111364980231</v>
       </c>
       <c r="G11">
-        <v>2.063163906353144</v>
+        <v>3.745039234142634</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>31.82759494806164</v>
+        <v>37.01002034968918</v>
       </c>
       <c r="J11">
-        <v>5.625204257905266</v>
+        <v>9.766968474087824</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>8.965406395168603</v>
+        <v>12.77681635291037</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.36888256623153</v>
+        <v>25.94386209495165</v>
       </c>
       <c r="C12">
-        <v>22.34372505524322</v>
+        <v>13.58669227865317</v>
       </c>
       <c r="D12">
-        <v>3.327156601521805</v>
+        <v>4.663032698571697</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>51.6064495204227</v>
+        <v>53.6110872742691</v>
       </c>
       <c r="G12">
-        <v>2.05939439868747</v>
+        <v>3.743954483501737</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>32.06169995310881</v>
+        <v>37.03156797287336</v>
       </c>
       <c r="J12">
-        <v>5.612488956480474</v>
+        <v>9.762842589885491</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.029066227352846</v>
+        <v>12.77907946077821</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.27592962697322</v>
+        <v>25.92294064746187</v>
       </c>
       <c r="C13">
-        <v>22.27518680501183</v>
+        <v>13.56260213424035</v>
       </c>
       <c r="D13">
-        <v>3.318278961778102</v>
+        <v>4.661513842631376</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>51.4998854287948</v>
+        <v>53.59593888930498</v>
       </c>
       <c r="G13">
-        <v>2.06020658431212</v>
+        <v>3.744187228668656</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>32.01107126689939</v>
+        <v>37.02687593350785</v>
       </c>
       <c r="J13">
-        <v>5.615222790833353</v>
+        <v>9.763727350328514</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.015330820442157</v>
+        <v>12.77857742861625</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.97184672320741</v>
+        <v>25.85476670269317</v>
       </c>
       <c r="C14">
-        <v>22.05101805413422</v>
+        <v>13.48383197029904</v>
       </c>
       <c r="D14">
-        <v>3.289357676249729</v>
+        <v>4.656552411441383</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>51.15309091997084</v>
+        <v>53.54683509063852</v>
       </c>
       <c r="G14">
-        <v>2.062853935203052</v>
+        <v>3.744949596438955</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>31.84676082386713</v>
+        <v>37.01176993314244</v>
       </c>
       <c r="J14">
-        <v>5.624156060826014</v>
+        <v>9.766627312080683</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>8.970632456914389</v>
+        <v>12.77699594501453</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.78485522535861</v>
+        <v>25.81305245331678</v>
       </c>
       <c r="C15">
-        <v>21.91320142630549</v>
+        <v>13.43542576546379</v>
       </c>
       <c r="D15">
-        <v>3.27166448266308</v>
+        <v>4.653507157787322</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>50.94122533268634</v>
+        <v>53.51698739651673</v>
       </c>
       <c r="G15">
-        <v>2.064474607490668</v>
+        <v>3.745419133914865</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>31.7467245097799</v>
+        <v>37.00266752990395</v>
       </c>
       <c r="J15">
-        <v>5.629641673632192</v>
+        <v>9.768414821311715</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>8.943326403505667</v>
+        <v>12.77607010583883</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.70178092408597</v>
+        <v>25.57475201667838</v>
       </c>
       <c r="C16">
-        <v>21.11539054077729</v>
+        <v>13.15569788606569</v>
       </c>
       <c r="D16">
-        <v>3.170545057415608</v>
+        <v>4.635960468405218</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>49.73532863901652</v>
+        <v>53.34948551362256</v>
       </c>
       <c r="G16">
-        <v>2.073753711492448</v>
+        <v>3.748149279238106</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>31.18252199513628</v>
+        <v>36.95281256969787</v>
       </c>
       <c r="J16">
-        <v>5.661294734939514</v>
+        <v>9.778830228280484</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>8.787942613195041</v>
+        <v>12.77142245948717</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.02679867556983</v>
+        <v>25.42930403555936</v>
       </c>
       <c r="C17">
-        <v>20.61850518045676</v>
+        <v>12.98210193857446</v>
       </c>
       <c r="D17">
-        <v>3.108691317243937</v>
+        <v>4.625110831786448</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>49.00259557072371</v>
+        <v>53.24991209612024</v>
       </c>
       <c r="G17">
-        <v>2.079444477565892</v>
+        <v>3.749859413385092</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>30.84422432960985</v>
+        <v>36.92428780767877</v>
       </c>
       <c r="J17">
-        <v>5.680913848487431</v>
+        <v>9.785373434352691</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.693577464599498</v>
+        <v>12.76915937961817</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.63458266431424</v>
+        <v>25.34594859327127</v>
       </c>
       <c r="C18">
-        <v>20.32986506425468</v>
+        <v>12.88155872836335</v>
       </c>
       <c r="D18">
-        <v>3.073157142008646</v>
+        <v>4.618839042471046</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>48.58363760002878</v>
+        <v>53.19381835973789</v>
       </c>
       <c r="G18">
-        <v>2.082719205274127</v>
+        <v>3.750856044444601</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>30.65242047243869</v>
+        <v>36.90863821898912</v>
       </c>
       <c r="J18">
-        <v>5.692274827434049</v>
+        <v>9.789193509374321</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.63964661679352</v>
+        <v>12.76807421055815</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.50109137729251</v>
+        <v>25.31778064727898</v>
       </c>
       <c r="C19">
-        <v>20.23163838992839</v>
+        <v>12.84740070834367</v>
       </c>
       <c r="D19">
-        <v>3.061131088641413</v>
+        <v>4.616710133907564</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>48.44220546709984</v>
+        <v>53.17502910385671</v>
       </c>
       <c r="G19">
-        <v>2.083828432462135</v>
+        <v>3.751195724608472</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>30.58794700541668</v>
+        <v>36.90346957342193</v>
       </c>
       <c r="J19">
-        <v>5.696134861517377</v>
+        <v>9.790496652469736</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.621445417979734</v>
+        <v>12.76774400709004</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.09906174409708</v>
+        <v>25.44475659978808</v>
       </c>
       <c r="C20">
-        <v>20.67169161403248</v>
+        <v>13.00065434750563</v>
       </c>
       <c r="D20">
-        <v>3.115270854169226</v>
+        <v>4.626269039975131</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>49.08033650503711</v>
+        <v>53.26039009217816</v>
       </c>
       <c r="G20">
-        <v>2.078838572294001</v>
+        <v>3.749676021455537</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>30.87994726944608</v>
+        <v>36.92724596212828</v>
       </c>
       <c r="J20">
-        <v>5.678817493891476</v>
+        <v>9.784671044028299</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.703586916923626</v>
+        <v>12.76937788994089</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.0613150741041</v>
+        <v>25.87478198290963</v>
       </c>
       <c r="C21">
-        <v>22.11696679431926</v>
+        <v>13.50700162035237</v>
       </c>
       <c r="D21">
-        <v>3.297847831751451</v>
+        <v>4.658011003114395</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>51.25483620613846</v>
+        <v>53.56121022772619</v>
       </c>
       <c r="G21">
-        <v>2.062076546805848</v>
+        <v>3.744725136193211</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>31.89489530132663</v>
+        <v>37.01617557940875</v>
       </c>
       <c r="J21">
-        <v>5.621529298950339</v>
+        <v>9.765773189805946</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>8.9837461801798</v>
+        <v>12.77745153437449</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.31070381799464</v>
+        <v>26.15788963653783</v>
       </c>
       <c r="C22">
-        <v>23.03856366304039</v>
+        <v>13.83098855345563</v>
       </c>
       <c r="D22">
-        <v>3.41808812297964</v>
+        <v>4.678477167065448</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>52.70059928240042</v>
+        <v>53.76812191154175</v>
       </c>
       <c r="G22">
-        <v>2.051086986905108</v>
+        <v>3.741604372980905</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>32.58518718205162</v>
+        <v>37.08103113465827</v>
       </c>
       <c r="J22">
-        <v>5.584710011203948</v>
+        <v>9.753923895480243</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.17009357501238</v>
+        <v>12.78464770299492</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.64677566503843</v>
+        <v>26.00663148429303</v>
       </c>
       <c r="C23">
-        <v>22.54866766074749</v>
+        <v>13.65873940671262</v>
       </c>
       <c r="D23">
-        <v>3.353800674927502</v>
+        <v>4.667579512681034</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>51.92657149419073</v>
+        <v>53.65675553773556</v>
       </c>
       <c r="G23">
-        <v>2.056958048552997</v>
+        <v>3.743259510775556</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>32.21417637630855</v>
+        <v>37.04580084045281</v>
       </c>
       <c r="J23">
-        <v>5.604307364062397</v>
+        <v>9.760202312649142</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.070328256520623</v>
+        <v>12.78063176750299</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.06640459247119</v>
+        <v>25.43776966447698</v>
       </c>
       <c r="C24">
-        <v>20.64765531582019</v>
+        <v>12.99226910156335</v>
       </c>
       <c r="D24">
-        <v>3.112296168933098</v>
+        <v>4.625745520546403</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>49.04518268767666</v>
+        <v>53.25564939889175</v>
       </c>
       <c r="G24">
-        <v>2.079112492121445</v>
+        <v>3.749758891036388</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>30.86378857911544</v>
+        <v>36.92590624537971</v>
       </c>
       <c r="J24">
-        <v>5.679765000721054</v>
+        <v>9.784988413079487</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.699060645405231</v>
+        <v>12.76927842883855</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.17845984835256</v>
+        <v>24.83609932650689</v>
       </c>
       <c r="C25">
-        <v>18.48735897218103</v>
+        <v>12.24735515873675</v>
       </c>
       <c r="D25">
-        <v>2.853226463797907</v>
+        <v>4.579421187048572</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>46.03207961285882</v>
+        <v>52.86811445682047</v>
       </c>
       <c r="G25">
-        <v>2.103088975200477</v>
+        <v>3.757267368126691</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>29.51246334974266</v>
+        <v>36.82551695615766</v>
       </c>
       <c r="J25">
-        <v>5.764114029632526</v>
+        <v>9.813889542774254</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>8.311808299762138</v>
+        <v>12.76531198766297</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_220/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_220/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.40667417833229</v>
+        <v>24.07268247842309</v>
       </c>
       <c r="C2">
-        <v>11.68122449503126</v>
+        <v>16.79173972372308</v>
       </c>
       <c r="D2">
-        <v>4.544271183612937</v>
+        <v>2.661504051902537</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>52.6222813664527</v>
+        <v>43.8882328550725</v>
       </c>
       <c r="G2">
-        <v>3.763229909519437</v>
+        <v>2.12102636799531</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>36.77641339118414</v>
+        <v>28.5983525019623</v>
       </c>
       <c r="J2">
-        <v>9.83704870042666</v>
+        <v>5.829052606865633</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>12.76954042613325</v>
+        <v>8.037697135246912</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.12578674411975</v>
+        <v>22.58074235843039</v>
       </c>
       <c r="C3">
-        <v>11.28937801641274</v>
+        <v>15.57270258345106</v>
       </c>
       <c r="D3">
-        <v>4.519794830385382</v>
+        <v>2.530154518051797</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>52.4805796729271</v>
+        <v>42.48096470380272</v>
       </c>
       <c r="G3">
-        <v>3.767544530718476</v>
+        <v>2.13344932083298</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>36.75854143372534</v>
+        <v>28.02526455126795</v>
       </c>
       <c r="J3">
-        <v>9.853924868201119</v>
+        <v>5.87495699837853</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>12.77687488681967</v>
+        <v>7.858867698164509</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>23.95886683829773</v>
+        <v>21.6334593458117</v>
       </c>
       <c r="C4">
-        <v>11.04583855981338</v>
+        <v>14.7884941312067</v>
       </c>
       <c r="D4">
-        <v>4.504441606795146</v>
+        <v>2.448607461366806</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>52.4059156209149</v>
+        <v>41.63962121652845</v>
       </c>
       <c r="G4">
-        <v>3.77032972869128</v>
+        <v>2.141234236990624</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>36.7551339148644</v>
+        <v>27.69506702118801</v>
       </c>
       <c r="J4">
-        <v>9.864872266130488</v>
+        <v>5.904115225558982</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>12.78358451757089</v>
+        <v>7.752556060523904</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>23.89232093589902</v>
+        <v>21.23979023921415</v>
       </c>
       <c r="C5">
-        <v>10.9460327889026</v>
+        <v>14.45978143929389</v>
       </c>
       <c r="D5">
-        <v>4.498103236242436</v>
+        <v>2.415127980776287</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>52.37859958367894</v>
+        <v>41.30255720089361</v>
       </c>
       <c r="G5">
-        <v>3.771499055580718</v>
+        <v>2.144449614216255</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>36.75564238745474</v>
+        <v>27.565787627978</v>
       </c>
       <c r="J5">
-        <v>9.869481008779692</v>
+        <v>5.916247225659149</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>12.78687379674929</v>
+        <v>7.710124886787377</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>23.88136244178896</v>
+        <v>21.17396801701457</v>
       </c>
       <c r="C6">
-        <v>10.92943168262093</v>
+        <v>14.40464250063381</v>
       </c>
       <c r="D6">
-        <v>4.49704580824147</v>
+        <v>2.4095531831166</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>52.3742517563167</v>
+        <v>41.24694031750455</v>
       </c>
       <c r="G6">
-        <v>3.771695299255912</v>
+        <v>2.144986214932</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>36.75584121577678</v>
+        <v>27.54463463144486</v>
       </c>
       <c r="J6">
-        <v>9.870255212619632</v>
+        <v>5.918276967061325</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>12.78745350757941</v>
+        <v>7.703133512312732</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>23.95796329930474</v>
+        <v>21.62818079284261</v>
       </c>
       <c r="C7">
-        <v>11.04449457181118</v>
+        <v>14.78409820873362</v>
       </c>
       <c r="D7">
-        <v>4.50435645675542</v>
+        <v>2.448156976895354</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>52.40553462812434</v>
+        <v>41.63505189225878</v>
       </c>
       <c r="G7">
-        <v>3.770345359438073</v>
+        <v>2.14127742240948</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>36.7551330994167</v>
+        <v>27.69330236947832</v>
       </c>
       <c r="J7">
-        <v>9.864933823141067</v>
+        <v>5.9042778239497</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>12.7836266303346</v>
+        <v>7.751980188949235</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.30872241881221</v>
+        <v>23.56483959464603</v>
       </c>
       <c r="C8">
-        <v>11.54683016067551</v>
+        <v>16.37872550019248</v>
       </c>
       <c r="D8">
-        <v>4.535899014127064</v>
+        <v>2.616385639109255</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>52.57086626335769</v>
+        <v>43.39832704854683</v>
       </c>
       <c r="G8">
-        <v>3.764689446132652</v>
+        <v>2.12527934641679</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>36.76867786829824</v>
+        <v>28.39614730572667</v>
       </c>
       <c r="J8">
-        <v>9.842746349238411</v>
+        <v>5.844681772924019</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>12.77161164914254</v>
+        <v>7.975320088790213</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.03688615308408</v>
+        <v>27.14050104247872</v>
       </c>
       <c r="C9">
-        <v>12.5013667568965</v>
+        <v>19.2307234725341</v>
       </c>
       <c r="D9">
-        <v>4.595186760771779</v>
+        <v>2.940518008550114</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>52.99256067539824</v>
+        <v>47.03516163671715</v>
       </c>
       <c r="G9">
-        <v>3.754671089176333</v>
+        <v>2.094981509444484</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>36.85547188427621</v>
+        <v>29.95451632714901</v>
       </c>
       <c r="J9">
-        <v>9.80386334914688</v>
+        <v>5.735279060481259</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>12.76553917385487</v>
+        <v>8.440536972465171</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.59138745281327</v>
+        <v>29.77826872332391</v>
       </c>
       <c r="C10">
-        <v>13.17540945923834</v>
+        <v>21.17171059998943</v>
       </c>
       <c r="D10">
-        <v>4.637194238393945</v>
+        <v>3.177610409611628</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>53.3610066011071</v>
+        <v>49.81928273235832</v>
       </c>
       <c r="G10">
-        <v>3.747955900464278</v>
+        <v>2.073104412531452</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>36.95617002400056</v>
+        <v>31.22150720832255</v>
       </c>
       <c r="J10">
-        <v>9.778091263532056</v>
+        <v>5.659066241047155</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>12.77171000226504</v>
+        <v>8.79875757087353</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.84678697932002</v>
+        <v>30.93613188265367</v>
       </c>
       <c r="C11">
-        <v>13.47458448345506</v>
+        <v>22.02469358853649</v>
       </c>
       <c r="D11">
-        <v>4.655970435504172</v>
+        <v>3.285972949652329</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>53.54111364980231</v>
+        <v>51.11254302260746</v>
       </c>
       <c r="G11">
-        <v>3.745039234142634</v>
+        <v>2.063163906353149</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>37.01002034968918</v>
+        <v>31.8275949480616</v>
       </c>
       <c r="J11">
-        <v>9.766968474087824</v>
+        <v>5.62520425790527</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>12.77681635291037</v>
+        <v>8.96540639516861</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.94386209495165</v>
+        <v>31.36888256623157</v>
       </c>
       <c r="C12">
-        <v>13.58669227865317</v>
+        <v>22.34372505524319</v>
       </c>
       <c r="D12">
-        <v>4.663032698571697</v>
+        <v>3.327156601521805</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>53.6110872742691</v>
+        <v>51.60644952042287</v>
       </c>
       <c r="G12">
-        <v>3.743954483501737</v>
+        <v>2.059394398687606</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>37.03156797287336</v>
+        <v>32.06169995310893</v>
       </c>
       <c r="J12">
-        <v>9.762842589885491</v>
+        <v>5.612488956480441</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>12.77907946077821</v>
+        <v>9.02906622735286</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.92294064746187</v>
+        <v>31.27592962697322</v>
       </c>
       <c r="C13">
-        <v>13.56260213424035</v>
+        <v>22.27518680501183</v>
       </c>
       <c r="D13">
-        <v>4.661513842631376</v>
+        <v>3.318278961777985</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>53.59593888930498</v>
+        <v>51.49988542879471</v>
       </c>
       <c r="G13">
-        <v>3.744187228668656</v>
+        <v>2.060206584312125</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>37.02687593350785</v>
+        <v>32.01107126689936</v>
       </c>
       <c r="J13">
-        <v>9.763727350328514</v>
+        <v>5.615222790833456</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>12.77857742861625</v>
+        <v>9.015330820442195</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.85476670269317</v>
+        <v>30.97184672320745</v>
       </c>
       <c r="C14">
-        <v>13.48383197029904</v>
+        <v>22.05101805413412</v>
       </c>
       <c r="D14">
-        <v>4.656552411441383</v>
+        <v>3.289357676249754</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>53.54683509063852</v>
+        <v>51.15309091997096</v>
       </c>
       <c r="G14">
-        <v>3.744949596438955</v>
+        <v>2.062853935202923</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>37.01176993314244</v>
+        <v>31.84676082386722</v>
       </c>
       <c r="J14">
-        <v>9.766627312080683</v>
+        <v>5.624156060825986</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>12.77699594501453</v>
+        <v>8.970632456914386</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.81305245331678</v>
+        <v>30.78485522535859</v>
       </c>
       <c r="C15">
-        <v>13.43542576546379</v>
+        <v>21.91320142630533</v>
       </c>
       <c r="D15">
-        <v>4.653507157787322</v>
+        <v>3.271664482663163</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>53.51698739651673</v>
+        <v>50.94122533268641</v>
       </c>
       <c r="G15">
-        <v>3.745419133914865</v>
+        <v>2.06447460749053</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>37.00266752990395</v>
+        <v>31.74672450977998</v>
       </c>
       <c r="J15">
-        <v>9.768414821311715</v>
+        <v>5.62964167363214</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>12.77607010583883</v>
+        <v>8.943326403505692</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.57475201667838</v>
+        <v>29.70178092408598</v>
       </c>
       <c r="C16">
-        <v>13.15569788606569</v>
+        <v>21.11539054077743</v>
       </c>
       <c r="D16">
-        <v>4.635960468405218</v>
+        <v>3.170545057415741</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>53.34948551362256</v>
+        <v>49.73532863901655</v>
       </c>
       <c r="G16">
-        <v>3.748149279238106</v>
+        <v>2.073753711492845</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>36.95281256969787</v>
+        <v>31.18252199513627</v>
       </c>
       <c r="J16">
-        <v>9.778830228280484</v>
+        <v>5.661294734939545</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>12.77142245948717</v>
+        <v>8.787942613195062</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.42930403555936</v>
+        <v>29.02679867556991</v>
       </c>
       <c r="C17">
-        <v>12.98210193857446</v>
+        <v>20.61850518045677</v>
       </c>
       <c r="D17">
-        <v>4.625110831786448</v>
+        <v>3.108691317243944</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>53.24991209612024</v>
+        <v>49.00259557072376</v>
       </c>
       <c r="G17">
-        <v>3.749859413385092</v>
+        <v>2.079444477566013</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>36.92428780767877</v>
+        <v>30.84422432960987</v>
       </c>
       <c r="J17">
-        <v>9.785373434352691</v>
+        <v>5.680913848487499</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>12.76915937961817</v>
+        <v>8.693577464599487</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.34594859327127</v>
+        <v>28.63458266431426</v>
       </c>
       <c r="C18">
-        <v>12.88155872836335</v>
+        <v>20.32986506425472</v>
       </c>
       <c r="D18">
-        <v>4.618839042471046</v>
+        <v>3.073157142008655</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>53.19381835973789</v>
+        <v>48.58363760002884</v>
       </c>
       <c r="G18">
-        <v>3.750856044444601</v>
+        <v>2.082719205274259</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>36.90863821898912</v>
+        <v>30.65242047243877</v>
       </c>
       <c r="J18">
-        <v>9.789193509374321</v>
+        <v>5.692274827434148</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>12.76807421055815</v>
+        <v>8.639646616793549</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.31778064727898</v>
+        <v>28.50109137729248</v>
       </c>
       <c r="C19">
-        <v>12.84740070834367</v>
+        <v>20.23163838992851</v>
       </c>
       <c r="D19">
-        <v>4.616710133907564</v>
+        <v>3.061131088641389</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>53.17502910385671</v>
+        <v>48.44220546710007</v>
       </c>
       <c r="G19">
-        <v>3.751195724608472</v>
+        <v>2.083828432461878</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>36.90346957342193</v>
+        <v>30.58794700541687</v>
       </c>
       <c r="J19">
-        <v>9.790496652469736</v>
+        <v>5.696134861517439</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>12.76774400709004</v>
+        <v>8.621445417979681</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.44475659978808</v>
+        <v>29.0990617440971</v>
       </c>
       <c r="C20">
-        <v>13.00065434750563</v>
+        <v>20.67169161403244</v>
       </c>
       <c r="D20">
-        <v>4.626269039975131</v>
+        <v>3.11527085416931</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>53.26039009217816</v>
+        <v>49.08033650503714</v>
       </c>
       <c r="G20">
-        <v>3.749676021455537</v>
+        <v>2.078838572294136</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>36.92724596212828</v>
+        <v>30.87994726944611</v>
       </c>
       <c r="J20">
-        <v>9.784671044028299</v>
+        <v>5.678817493891642</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>12.76937788994089</v>
+        <v>8.703586916923674</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.87478198290963</v>
+        <v>31.061315074104</v>
       </c>
       <c r="C21">
-        <v>13.50700162035237</v>
+        <v>22.1169667943194</v>
       </c>
       <c r="D21">
-        <v>4.658011003114395</v>
+        <v>3.297847831751585</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>53.56121022772619</v>
+        <v>51.25483620613874</v>
       </c>
       <c r="G21">
-        <v>3.744725136193211</v>
+        <v>2.062076546806104</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>37.01617557940875</v>
+        <v>31.89489530132692</v>
       </c>
       <c r="J21">
-        <v>9.765773189805946</v>
+        <v>5.621529298950474</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>12.77745153437449</v>
+        <v>8.983746180179823</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.15788963653783</v>
+        <v>32.31070381799463</v>
       </c>
       <c r="C22">
-        <v>13.83098855345563</v>
+        <v>23.03856366304057</v>
       </c>
       <c r="D22">
-        <v>4.678477167065448</v>
+        <v>3.418088122979756</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>53.76812191154175</v>
+        <v>52.70059928240042</v>
       </c>
       <c r="G22">
-        <v>3.741604372980905</v>
+        <v>2.051086986905513</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>37.08103113465827</v>
+        <v>32.58518718205164</v>
       </c>
       <c r="J22">
-        <v>9.753923895480243</v>
+        <v>5.584710011203984</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>12.78464770299492</v>
+        <v>9.170093575012398</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.00663148429303</v>
+        <v>31.64677566503832</v>
       </c>
       <c r="C23">
-        <v>13.65873940671262</v>
+        <v>22.54866766074737</v>
       </c>
       <c r="D23">
-        <v>4.667579512681034</v>
+        <v>3.35380067492726</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>53.65675553773556</v>
+        <v>51.92657149419077</v>
       </c>
       <c r="G23">
-        <v>3.743259510775556</v>
+        <v>2.056958048553139</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>37.04580084045281</v>
+        <v>32.21417637630862</v>
       </c>
       <c r="J23">
-        <v>9.760202312649142</v>
+        <v>5.604307364062489</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>12.78063176750299</v>
+        <v>9.070328256520625</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.43776966447698</v>
+        <v>29.06640459247122</v>
       </c>
       <c r="C24">
-        <v>12.99226910156335</v>
+        <v>20.64765531582014</v>
       </c>
       <c r="D24">
-        <v>4.625745520546403</v>
+        <v>3.112296168932974</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>53.25564939889175</v>
+        <v>49.04518268767664</v>
       </c>
       <c r="G24">
-        <v>3.749758891036388</v>
+        <v>2.079112492121039</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>36.92590624537971</v>
+        <v>30.86378857911538</v>
       </c>
       <c r="J24">
-        <v>9.784988413079487</v>
+        <v>5.679765000721209</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>12.76927842883855</v>
+        <v>8.699060645405297</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.83609932650689</v>
+        <v>26.17845984835257</v>
       </c>
       <c r="C25">
-        <v>12.24735515873675</v>
+        <v>18.48735897218103</v>
       </c>
       <c r="D25">
-        <v>4.579421187048572</v>
+        <v>2.853226463798107</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>52.86811445682047</v>
+        <v>46.03207961285892</v>
       </c>
       <c r="G25">
-        <v>3.757267368126691</v>
+        <v>2.10308897520061</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>36.82551695615766</v>
+        <v>29.51246334974273</v>
       </c>
       <c r="J25">
-        <v>9.813889542774254</v>
+        <v>5.764114029632468</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>12.76531198766297</v>
+        <v>8.311808299762138</v>
       </c>
       <c r="M25">
         <v>0</v>
